--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value412.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value412.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.223497979616826</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>1.931695832749489</v>
+        <v>3.769417524337769</v>
       </c>
       <c r="C1">
-        <v>3.117319380313867</v>
+        <v>2.079323053359985</v>
       </c>
       <c r="D1">
-        <v>2.017510351432175</v>
+        <v>1.630290031433105</v>
       </c>
       <c r="E1">
-        <v>0.5096566251144715</v>
+        <v>1.48291015625</v>
       </c>
     </row>
   </sheetData>
